--- a/第二阶段/N21模块自测报告_李宣廷.xlsx
+++ b/第二阶段/N21模块自测报告_李宣廷.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="144525" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -535,10 +535,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录 FTP 服务器失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">AT+FTPLOGIN=58.60.184.213,21,neowayftp,neowayftp </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -549,10 +545,6 @@
   </si>
   <si>
     <t>+FTPLOGIN: 530 Not logged in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名或密码错导致登录失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1030,11 +1022,19 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>用户名或密码错导致登录失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名或密码错导致登录失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1316,7 +1316,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1351,7 +1351,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1528,7 +1528,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1538,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1551,7 +1551,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -1590,13 +1590,13 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
@@ -1614,12 +1614,12 @@
         <v>7</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="57" x14ac:dyDescent="0.2">
@@ -1650,7 +1650,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
@@ -1668,7 +1668,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1704,7 +1704,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -1720,7 +1720,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1774,7 +1774,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1792,7 +1792,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -1808,7 +1808,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -1844,7 +1844,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="142.5" x14ac:dyDescent="0.2">
@@ -1860,7 +1860,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -1878,7 +1878,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1912,7 +1912,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1973,10 +1973,10 @@
     </row>
     <row r="25" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>65</v>
@@ -2036,7 +2036,7 @@
         <v>77</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>79</v>
@@ -2214,7 +2214,7 @@
         <v>123</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>124</v>
@@ -2226,51 +2226,51 @@
         <v>101</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>124</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>127</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>125</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>132</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>23</v>
@@ -2282,13 +2282,13 @@
         <v>7</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>35</v>
@@ -2300,71 +2300,71 @@
         <v>7</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="D44" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>35</v>
@@ -2376,35 +2376,35 @@
         <v>7</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>23</v>
@@ -2416,39 +2416,39 @@
         <v>7</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>165</v>
-      </c>
       <c r="D48" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>101</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>7</v>
@@ -2457,16 +2457,16 @@
     </row>
     <row r="50" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="D50" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>173</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>7</v>
@@ -2475,10 +2475,10 @@
     </row>
     <row r="51" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>23</v>
@@ -2493,10 +2493,10 @@
     </row>
     <row r="52" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>23</v>
@@ -2511,16 +2511,16 @@
     </row>
     <row r="53" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>23</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>101</v>
@@ -2529,14 +2529,14 @@
     </row>
     <row r="54" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>7</v>
@@ -2545,10 +2545,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>35</v>
@@ -2560,15 +2560,15 @@
         <v>7</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>23</v>
@@ -2580,15 +2580,15 @@
         <v>7</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>35</v>
@@ -2600,15 +2600,15 @@
         <v>7</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>35</v>
@@ -2620,15 +2620,15 @@
         <v>7</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>35</v>
@@ -2640,15 +2640,15 @@
         <v>7</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>198</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>35</v>
@@ -2660,18 +2660,18 @@
         <v>7</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>203</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>23</v>
@@ -2680,15 +2680,15 @@
         <v>7</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>23</v>
@@ -2700,19 +2700,19 @@
         <v>7</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>7</v>
@@ -2721,10 +2721,10 @@
     </row>
     <row r="64" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>23</v>
@@ -2737,10 +2737,10 @@
     </row>
     <row r="65" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>35</v>
@@ -2753,24 +2753,24 @@
     </row>
     <row r="66" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
     </row>
     <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>23</v>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
